--- a/sample_excel_files/type_1_sub_wrong_different_result.xlsx
+++ b/sample_excel_files/type_1_sub_wrong_different_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardopramanasuranta/Documents/Projects-CMUSV/Fall-2020/18980-GRA/pysheetgrader/sample_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DFC12F-E5CF-9240-AFA3-BFA4CF4161AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E68BF6-53DD-C641-BF51-3530CE08D0D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42280" yWindow="10100" windowWidth="21040" windowHeight="12920" xr2:uid="{E0450653-B2D8-E342-9DE9-A7B7C9F37F08}"/>
+    <workbookView xWindow="5180" yWindow="1600" windowWidth="28060" windowHeight="14140" xr2:uid="{E0450653-B2D8-E342-9DE9-A7B7C9F37F08}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>&lt; This cell should be 2, but it's replaced for testing</t>
+  </si>
+  <si>
+    <t>Discounted Total</t>
   </si>
 </sst>
 </file>
@@ -408,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3731C799-78A7-C849-8E49-D29CD30B9485}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,6 +474,15 @@
         <v>67</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <f xml:space="preserve"> 90% * B6</f>
+        <v>60.300000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
